--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseroblestostado/Documents/AlgoExpert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60508541-C90C-6E45-A683-CD9E2D3B63B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA4B563-87B2-A34E-A171-4FF3421FB261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{118ED594-4BC5-C64A-9D62-BBDDAC1931EC}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="Groups">[1]Utils!$C$4:$C$13</definedName>
     <definedName name="Types">[1]Utils!$E$4:$E$20</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="133">
   <si>
     <t>Type</t>
   </si>
@@ -129,6 +129,321 @@
   </si>
   <si>
     <t>Very Hard</t>
+  </si>
+  <si>
+    <t>twoNumSum</t>
+  </si>
+  <si>
+    <t>distinct number array. target sum. return pair if diff nums add to it or empty if not.</t>
+  </si>
+  <si>
+    <t>hash_map and check if both in, hash_set, i and j loops</t>
+  </si>
+  <si>
+    <t>isValidSubsequence</t>
+  </si>
+  <si>
+    <t>tournamentWinner</t>
+  </si>
+  <si>
+    <t>subsequence in bigger array as long as numbers are in the ordered no/yes sequentially</t>
+  </si>
+  <si>
+    <t>two pointers, loop while both in bounds, increment parent ptr if no match, else both</t>
+  </si>
+  <si>
+    <t>sortedSquareArray</t>
+  </si>
+  <si>
+    <t>square the numbers in an array and return them in a sorted order</t>
+  </si>
+  <si>
+    <t>sort arr, square, sort again</t>
+  </si>
+  <si>
+    <t>for each team init it to 0 in a hash_map, then iterate thru results and add corresponding points</t>
+  </si>
+  <si>
+    <t>competition array of tupples of home,away .. result array of winner 1:home, 0:away</t>
+  </si>
+  <si>
+    <t>nonConstructableChange</t>
+  </si>
+  <si>
+    <t>array of cents, give the minimum sum that cannot be formed from the coins in the array</t>
+  </si>
+  <si>
+    <t>ascending array, if do not have curr change + 1 we cannot make curr change +1, else accumulate</t>
+  </si>
+  <si>
+    <t>transposeMatrix</t>
+  </si>
+  <si>
+    <t>given nxm matrix return the transpose of it .. rows become columns</t>
+  </si>
+  <si>
+    <t>matrix col by row instead of row by col and traverse the matrix while inserting into the transposed</t>
+  </si>
+  <si>
+    <t>findClosestValueInBst</t>
+  </si>
+  <si>
+    <t>given a bst, find the closest value to a target</t>
+  </si>
+  <si>
+    <t>helper variables for closest, difference then calculate new difference, update, traverse on other choice</t>
+  </si>
+  <si>
+    <t>branchSums</t>
+  </si>
+  <si>
+    <t>given a BT find the branch sums from left to right and return a list with them</t>
+  </si>
+  <si>
+    <t>need sums array, need stack of ( curr, prevSum ). keep popping and adding to next appended node</t>
+  </si>
+  <si>
+    <t>nodeDepths</t>
+  </si>
+  <si>
+    <t>BT find the sum of all its depths</t>
+  </si>
+  <si>
+    <t>dfs; carry currDepth, update aggregatedSum, append right and left if they exist</t>
+  </si>
+  <si>
+    <t>mergeSort</t>
+  </si>
+  <si>
+    <t>sort an unordered array in ascending order</t>
+  </si>
+  <si>
+    <t>get left, get right, recurse left, recurse right, loop over temp and reorder l,r,k .. loop until exists .. return</t>
+  </si>
+  <si>
+    <t>evaluateExpressionTree</t>
+  </si>
+  <si>
+    <t>expression tree where leaves are operands and parents &lt; 0 are operators, eval left to right</t>
+  </si>
+  <si>
+    <t>base case positive number and return it, else get left and right and return the result of their operation</t>
+  </si>
+  <si>
+    <t>depthFirstSearch</t>
+  </si>
+  <si>
+    <t>given a node with children nodes, return a list of all the names of the nodes from left to right</t>
+  </si>
+  <si>
+    <t>stack with self at first, then append name to array, then append in reverse from children to pop -&gt; ret</t>
+  </si>
+  <si>
+    <t>minimumWaitingTime</t>
+  </si>
+  <si>
+    <t>given a list of query times return the minimum waiting time where each query waits the prev time</t>
+  </si>
+  <si>
+    <t>shorter queries first so minimum wait for next --&gt; accumulate curr_time to then final_time</t>
+  </si>
+  <si>
+    <t>knapSackProblem</t>
+  </si>
+  <si>
+    <t>HRT</t>
+  </si>
+  <si>
+    <t>detectUndirectedGraphCycle</t>
+  </si>
+  <si>
+    <t>shortestPathMatrix2d</t>
+  </si>
+  <si>
+    <t>detectCycleInGraph</t>
+  </si>
+  <si>
+    <t>maxNumberInBTPerLevel</t>
+  </si>
+  <si>
+    <t>swapEveryTwoNodesLL</t>
+  </si>
+  <si>
+    <t>coursePrerequisites</t>
+  </si>
+  <si>
+    <t>implementBST</t>
+  </si>
+  <si>
+    <t>traverseMatrixSpiralOrder</t>
+  </si>
+  <si>
+    <t>levenshteinEditDistance</t>
+  </si>
+  <si>
+    <t>nextGreaterElementInCircularArray</t>
+  </si>
+  <si>
+    <t>kapsahCapacityLimited</t>
+  </si>
+  <si>
+    <t>kapsahCapacityUnlimited</t>
+  </si>
+  <si>
+    <t>classPhotos</t>
+  </si>
+  <si>
+    <t>given 2 arrays, blues and rights, return whether a photo can be taken (color together, row taller)</t>
+  </si>
+  <si>
+    <t>sort arrays, check if same, greater, less and look for opposite to return False</t>
+  </si>
+  <si>
+    <t>tandemBicylce</t>
+  </si>
+  <si>
+    <t>given reds and blues, match them in tandem (guided by max) to return max_sum or min_sum</t>
+  </si>
+  <si>
+    <t>if empty -&gt; 0, sort arrays, fastest max sum of as much distance as possible, slowest sum of closest</t>
+  </si>
+  <si>
+    <t>optimalFreelancing</t>
+  </si>
+  <si>
+    <t>given an array of jobs with a deadline and a payment return the max profit we can make</t>
+  </si>
+  <si>
+    <t>sort based on pay, schedule the job for the latest day possible, return our profit</t>
+  </si>
+  <si>
+    <t>removeDupsLinkedList</t>
+  </si>
+  <si>
+    <t>given head of sorted LL, return modified LL with no duplicates (modified in place), return head</t>
+  </si>
+  <si>
+    <t>two loops, outer while current, inner while next is dup skip next, break of inner, curr is next till none</t>
+  </si>
+  <si>
+    <t>middleNode</t>
+  </si>
+  <si>
+    <t>given a LL head, return the middle node, if even return the second middle if odd return the middle</t>
+  </si>
+  <si>
+    <t>get length, get mid, get to middle left and return middle right</t>
+  </si>
+  <si>
+    <t>nthFibonacci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given an n, return the nth fib. 0,1 are 1,2 ns. [0,1] are 1st and 2nd </t>
+  </si>
+  <si>
+    <t>initiate the values for n=0,1,2 then calculate the next value in the fib until we get our desired one</t>
+  </si>
+  <si>
+    <t>productSum</t>
+  </si>
+  <si>
+    <t>given a special array, return the sum of all their elements each element is multiplied by depth</t>
+  </si>
+  <si>
+    <t>recursion with (arr,mult), aggregate to the sum at each level, if type not int --&gt; recurse with mult +1</t>
+  </si>
+  <si>
+    <t>binarySearch</t>
+  </si>
+  <si>
+    <t>findThreeLargestNums</t>
+  </si>
+  <si>
+    <t>given an ordered array, search for a number, return its index or -1 if not found</t>
+  </si>
+  <si>
+    <t>while loop l &lt;= r, update mid and pointers accordignly, if nothing return -1</t>
+  </si>
+  <si>
+    <t>given an array you cannot sort, return an array of 3 largest numbers</t>
+  </si>
+  <si>
+    <t>initialize -inf results, then for each number check if greater than greatest, shift values and update</t>
+  </si>
+  <si>
+    <t>isPalindrome</t>
+  </si>
+  <si>
+    <t>check if a string is a palindrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have two pointers right and left traverse until they cross and compare at each step </t>
+  </si>
+  <si>
+    <t>caesarCipherEncryptor</t>
+  </si>
+  <si>
+    <t>based on a string of lower caps and a key (non-neg int) return a new string shifted by k key</t>
+  </si>
+  <si>
+    <t>for each char create a new char based on the ord(a) ord(char) mod 26, add them up and return</t>
+  </si>
+  <si>
+    <t>runLegthEncoding</t>
+  </si>
+  <si>
+    <t>based on a string of repeating characters capped at 9 reps return encoded AACC -&gt; 9A1A2C</t>
+  </si>
+  <si>
+    <t>iterate over a window l and r while l=r and count&lt;9 while r is not at end, once inner breaks update string</t>
+  </si>
+  <si>
+    <t>commonCharacter</t>
+  </si>
+  <si>
+    <t>array of strings, return an array of characters all the strings share</t>
+  </si>
+  <si>
+    <t>hashmap to count 1 per string if string has character, at the end add chars that are in all to result</t>
+  </si>
+  <si>
+    <t>return True or False depending if the document can be formed with the available characters</t>
+  </si>
+  <si>
+    <t>generateDocument</t>
+  </si>
+  <si>
+    <t>count characters, traverse document and check if character exists and if enough, else return false</t>
+  </si>
+  <si>
+    <t>firstNonRepeatingCharacter</t>
+  </si>
+  <si>
+    <t>return the first non repeating character's index of a string, if there is not one, return -1</t>
+  </si>
+  <si>
+    <t>count characters and have [idx,count], find the minimum index if the count is 1 and return it if minimum</t>
+  </si>
+  <si>
+    <t>semordnilap</t>
+  </si>
+  <si>
+    <t>return semordnilap pairs, [word,reversed] array based on a list of unique words, no palindrome</t>
+  </si>
+  <si>
+    <t>word_set. for word  get reversed and check if in set and not word to append and remove word from set</t>
+  </si>
+  <si>
+    <t>threeNumberSum</t>
+  </si>
+  <si>
+    <t>based on certain items and size constraints, maximize the value we can carry depending a 'n'</t>
+  </si>
+  <si>
+    <t>distinct integers, return in order array of arrays of trplets adding to target, in ascending order</t>
+  </si>
+  <si>
+    <t>sort it, pick number, l &amp; r ptrs to find nexts that add to sums and check if =, &lt;, &gt; to act accrordingly</t>
   </si>
 </sst>
 </file>
@@ -240,6 +555,54 @@
   <dxfs count="9">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -337,54 +700,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
@@ -569,20 +884,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EBD82438-8FB6-5543-B274-E9A9D53601DB}" name="Table1" displayName="Table1" ref="C4:C19" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EBD82438-8FB6-5543-B274-E9A9D53601DB}" name="Table1" displayName="Table1" ref="C4:C19" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="C4:C19" xr:uid="{EBD82438-8FB6-5543-B274-E9A9D53601DB}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FBA656D7-69CD-C548-99CC-3917E883E146}" name="Type" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{FBA656D7-69CD-C548-99CC-3917E883E146}" name="Type" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{29B046E6-4F58-C44A-B258-16BE81B27998}" name="Table2" displayName="Table2" ref="E4:E8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{29B046E6-4F58-C44A-B258-16BE81B27998}" name="Table2" displayName="Table2" ref="E4:E8" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="E4:E8" xr:uid="{29B046E6-4F58-C44A-B258-16BE81B27998}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{08CF3CC7-3DA4-754D-AD64-390362375896}" name="Difficulty" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{08CF3CC7-3DA4-754D-AD64-390362375896}" name="Difficulty" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -885,15 +1200,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92BEFC2-59FB-454B-82E4-0A3E20B6186C}">
-  <dimension ref="A2:M16"/>
+  <dimension ref="A2:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="1" style="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -943,113 +1258,1030 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
       <c r="C6" s="5"/>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f>A6+1</f>
+        <v>2</v>
+      </c>
       <c r="C7" s="5"/>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="K7" s="5"/>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" ref="A8:A33" si="0">A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C8" s="5"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="K8" s="5"/>
-      <c r="M8" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="K9" s="5"/>
-      <c r="M9" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="C10" s="5"/>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="M10" s="7"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="C11" s="5"/>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="M11" s="7"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="5"/>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="K12" s="5"/>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="E20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="E21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="E22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="E26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="E27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="E28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="E29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="E30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="E31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="E32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="E33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K33" s="5"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="M34" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="7" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C35" s="5"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="K35" s="5"/>
+      <c r="M35" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="M36" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="9" t="s">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f>A33+1</f>
+        <v>29</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="E37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="M40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="9" t="s">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C41" s="5"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="K41" s="5"/>
+      <c r="M41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="9" t="s">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="M42" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="10" t="s">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
+      <c r="E43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C44" s="5"/>
+      <c r="E44" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C46" s="5"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="K46" s="5"/>
+      <c r="M46" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C48" s="5"/>
+      <c r="E48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C49" s="5"/>
+      <c r="E49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C50" s="5"/>
+      <c r="E50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="M50" s="7"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C51" s="5"/>
+      <c r="E51" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C52" s="5"/>
+      <c r="E52" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C53" s="5"/>
+      <c r="E53" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C54" s="5"/>
+      <c r="E54" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K54" s="5"/>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C55" s="5"/>
+      <c r="E55" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K55" s="5"/>
+      <c r="M55" s="7"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C56" s="5"/>
+      <c r="E56" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K56" s="5"/>
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C57" s="5"/>
+      <c r="E57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K57" s="5"/>
+      <c r="M57" s="7"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C58" s="5"/>
+      <c r="E58" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58" s="5"/>
+      <c r="M58" s="7"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C59" s="5"/>
+      <c r="E59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K59" s="5"/>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="M60" s="7"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="M61" s="7"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="M62" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F64" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G64" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H64" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I64" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J64" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K64" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L64" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M64" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E16" s="10"/>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F5:F14">
+  <conditionalFormatting sqref="F5:F64">
     <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",F5)))</formula>
     </cfRule>
@@ -1068,13 +2300,13 @@
           <x14:formula1>
             <xm:f>Utils!$C$4:$C$19</xm:f>
           </x14:formula1>
-          <xm:sqref>E6 E10</xm:sqref>
+          <xm:sqref>E43:E44 E6:E33 E37:E39</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65E88271-C222-3940-93B1-EBC3C99C608C}">
           <x14:formula1>
             <xm:f>Utils!$E$4:$E$8</xm:f>
           </x14:formula1>
-          <xm:sqref>F6 F10</xm:sqref>
+          <xm:sqref>F43:F44 F6:F33 F37:F39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1087,7 +2319,7 @@
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
